--- a/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StorageVariables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="StorageVariables" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,31 +528,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DK1_Central_HS</t>
+          <t>id_DK_Central_HS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.826</v>
+        <v>142.346</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DK1_Central_HS</t>
+          <t>id_DK_Central_HS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100.826</v>
+        <v>142.346</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DK1_Central_HS</t>
+          <t>id_DK_Central_HS</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6084.327586206896</v>
+        <v>8589.844827586207</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>DK1_Central_HS</t>
+          <t>id_DK_Central_HS</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>DK1_Central_HS</t>
+          <t>id_DK_Central_HS</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>DK1_Central_HS</t>
+          <t>id_DK_Central_HS</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>DK1_Central_HS</t>
+          <t>id_DK_Central_HS</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -584,7 +584,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>DK1_Central_HS</t>
+          <t>id_DK_Central_HS</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>DK1_Central_HS</t>
+          <t>id_DK_Central_HS</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -602,31 +602,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DK1_LargeDecentral_HS</t>
+          <t>id_DK_Decentral_HS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.949</v>
+        <v>424.086</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DK1_LargeDecentral_HS</t>
+          <t>id_DK_Decentral_HS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72.949</v>
+        <v>424.086</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DK1_LargeDecentral_HS</t>
+          <t>id_DK_Decentral_HS</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4402.094827586207</v>
+        <v>25591.39655172414</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>DK1_LargeDecentral_HS</t>
+          <t>id_DK_Decentral_HS</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -634,7 +634,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>DK1_LargeDecentral_HS</t>
+          <t>id_DK_Decentral_HS</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -642,7 +642,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>DK1_LargeDecentral_HS</t>
+          <t>id_DK_Decentral_HS</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>DK1_LargeDecentral_HS</t>
+          <t>id_DK_Decentral_HS</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -658,7 +658,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>DK1_LargeDecentral_HS</t>
+          <t>id_DK_Decentral_HS</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -666,306 +666,10 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>DK1_LargeDecentral_HS</t>
+          <t>id_DK_Decentral_HS</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3137.795613631655</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DK1_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>258.837</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>DK1_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>258.837</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>DK1_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>15619.47413793103</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>DK1_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>DK1_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>DK1_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0008414252746161699</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>DK1_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>DK1_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>9.101869695300339</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>DK1_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>3137.795613631655</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DK2_Central_HS</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>41.52</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DK2_Central_HS</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>41.52</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DK2_Central_HS</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2505.517241379311</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>DK2_Central_HS</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>DK2_Central_HS</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>DK2_Central_HS</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0008414252746161699</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>DK2_Central_HS</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>DK2_Central_HS</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>9.101869695300339</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>DK2_Central_HS</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>3137.795613631655</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DK2_LargeDecentral_HS</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DK2_LargeDecentral_HS</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>DK2_LargeDecentral_HS</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1508.620689655172</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>DK2_LargeDecentral_HS</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>DK2_LargeDecentral_HS</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>DK2_LargeDecentral_HS</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0008414252746161699</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>DK2_LargeDecentral_HS</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>DK2_LargeDecentral_HS</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>9.101869695300339</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>DK2_LargeDecentral_HS</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>3137.795613631655</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DK2_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DK2_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DK2_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4061.206896551724</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>DK2_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>DK2_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>DK2_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0008414252746161699</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>DK2_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>DK2_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>9.101869695300339</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>DK2_SmallDecentral_HS</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
         <v>3137.795613631655</v>
       </c>
     </row>

--- a/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="StorageVariables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StorageVariables" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StorageVariables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="StorageVariables" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,16 +514,6 @@
           <t>FOM/FOM</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>InvestCost/tech</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>InvestCost/InvestCost</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -590,14 +580,6 @@
       <c r="P2" t="n">
         <v>9.101869695300339</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>id_DK_Central_HS</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>3137.795613631655</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -663,14 +645,6 @@
       </c>
       <c r="P3" t="n">
         <v>9.101869695300339</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HS</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>3137.795613631655</v>
       </c>
     </row>
   </sheetData>

--- a/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.346</v>
+        <v>566.432</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>142.346</v>
+        <v>566.432</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8589.844827586207</v>
+        <v>34181.24137931035</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -578,72 +578,6 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>9.101869695300339</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HS</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>424.086</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HS</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>424.086</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HS</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>25591.39655172414</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HS</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HS</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HS</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0008414252746161699</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HS</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HS</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
         <v>9.101869695300339</v>
       </c>
     </row>

--- a/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.432</v>
+        <v>2.9</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>566.432</v>
+        <v>2.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>34181.24137931035</v>
+        <v>175</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.9</v>
+        <v>276.3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.9</v>
+        <v>276.3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>175</v>
+        <v>16575</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.3</v>
+        <v>267.8</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>276.3</v>
+        <v>267.8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>16575</v>
+        <v>16070</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/StorageVariables.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="StorageVariables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StorageVariables" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>267.8</v>
+        <v>839.4000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>267.8</v>
+        <v>839.4000000000001</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>16070</v>
+        <v>50365</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
